--- a/global_data/day_data/603331.xlsx
+++ b/global_data/day_data/603331.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1899"/>
+  <dimension ref="A1:I1901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -55479,6 +55481,64 @@
         <v>0.02566975973306694</v>
       </c>
     </row>
+    <row r="1900" spans="1:9">
+      <c r="A1900" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B1900">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="C1900">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D1900">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="E1900">
+        <v>9.25</v>
+      </c>
+      <c r="F1900">
+        <v>4166880</v>
+      </c>
+      <c r="G1900">
+        <v>38259737</v>
+      </c>
+      <c r="H1900">
+        <v>202175636</v>
+      </c>
+      <c r="I1900">
+        <v>0.02061019855033373</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:9">
+      <c r="A1901" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B1901">
+        <v>9.31</v>
+      </c>
+      <c r="C1901">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D1901">
+        <v>9.25</v>
+      </c>
+      <c r="E1901">
+        <v>9.33</v>
+      </c>
+      <c r="F1901">
+        <v>4403600</v>
+      </c>
+      <c r="G1901">
+        <v>41241120</v>
+      </c>
+      <c r="H1901">
+        <v>202175636</v>
+      </c>
+      <c r="I1901">
+        <v>0.02178106169034136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
